--- a/KeHoachThucHien_19110009_19110247.xlsx
+++ b/KeHoachThucHien_19110009_19110247.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSIs\OneDrive\Máy tính\abc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSIs\OneDrive\Máy tính\DoAnCNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940894A9-9960-48F9-BD2F-908BB5822596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502FD8F-62A3-4295-BC33-F2988D732505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1834,7 @@
         <v>44518</v>
       </c>
       <c r="I18" s="26">
-        <v>44522</v>
+        <v>44541</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
